--- a/public/data/data-duerer_english.xlsx
+++ b/public/data/data-duerer_english.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusnick/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{90B89D87-E13D-4A40-B00F-B70CBCD39BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9E1393-829C-4651-8AF1-481EF290AFE8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBED6870-D726-45AF-B273-CEB9BE726058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25780" windowHeight="15580" tabRatio="647" firstSheet="7" activeTab="8" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" tabRatio="647" firstSheet="7" activeTab="8" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4094" uniqueCount="1589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="1587">
   <si>
     <t>id</t>
   </si>
@@ -4170,12 +4170,6 @@
   </si>
   <si>
     <t>coronation of Charles V in Aachen on 1520-10-23, visits and draws coronation locations, portraits members of official delegations, Sunday, overnight stay</t>
-  </si>
-  <si>
-    <t>is historical event</t>
-  </si>
-  <si>
-    <t>he-001</t>
   </si>
   <si>
     <t>nl/EID089</t>
@@ -4821,7 +4815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4974,8 +4968,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5294,21 +5288,21 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.41015625" customWidth="1"/>
+    <col min="2" max="2" width="19.29296875" customWidth="1"/>
+    <col min="3" max="3" width="20.703125" customWidth="1"/>
+    <col min="4" max="4" width="22.29296875" customWidth="1"/>
+    <col min="5" max="5" width="18.29296875" customWidth="1"/>
+    <col min="6" max="6" width="18.41015625" customWidth="1"/>
+    <col min="7" max="7" width="15.1171875" customWidth="1"/>
+    <col min="8" max="8" width="14.87890625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5340,7 +5334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -5366,7 +5360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -5385,7 +5379,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -5404,7 +5398,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -5423,7 +5417,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -5449,7 +5443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -5468,7 +5462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
@@ -5489,7 +5483,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
@@ -5506,7 +5500,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
@@ -5520,7 +5514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -5534,7 +5528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -5548,7 +5542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
@@ -5580,52 +5574,52 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="88" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="240">
+    </row>
+    <row r="2" spans="1:4" ht="229.35" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="80.099999999999994">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.5">
+      <c r="C18" t="s">
         <v>1586</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>1588</v>
       </c>
     </row>
   </sheetData>
@@ -5647,17 +5641,17 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.29296875" customWidth="1"/>
+    <col min="3" max="3" width="22.703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.41015625" customWidth="1"/>
+    <col min="6" max="6" width="14.703125" customWidth="1"/>
     <col min="7" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5683,7 +5677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
@@ -5703,7 +5697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
@@ -5721,7 +5715,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.35" customHeight="1">
+    <row r="4" spans="1:8" ht="13.35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>64</v>
       </c>
@@ -5741,7 +5735,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>68</v>
       </c>
@@ -5761,7 +5755,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -5781,7 +5775,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
         <v>76</v>
       </c>
@@ -5801,7 +5795,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
         <v>80</v>
       </c>
@@ -5819,7 +5813,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>84</v>
       </c>
@@ -5841,7 +5835,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>90</v>
       </c>
@@ -5857,7 +5851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
         <v>92</v>
       </c>
@@ -5873,7 +5867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -5890,7 +5884,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>98</v>
       </c>
@@ -5906,7 +5900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
@@ -5924,7 +5918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
@@ -5944,7 +5938,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>109</v>
       </c>
@@ -5964,7 +5958,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>111</v>
       </c>
@@ -5982,7 +5976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>114</v>
       </c>
@@ -6000,7 +5994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>117</v>
       </c>
@@ -6020,7 +6014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>121</v>
       </c>
@@ -6038,7 +6032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>124</v>
       </c>
@@ -6054,7 +6048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>126</v>
       </c>
@@ -6072,7 +6066,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>129</v>
       </c>
@@ -6092,7 +6086,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>133</v>
       </c>
@@ -6108,7 +6102,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>135</v>
       </c>
@@ -6124,7 +6118,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>137</v>
       </c>
@@ -6140,7 +6134,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>139</v>
       </c>
@@ -6156,7 +6150,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>141</v>
       </c>
@@ -6176,7 +6170,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>145</v>
       </c>
@@ -6196,7 +6190,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>147</v>
       </c>
@@ -6216,7 +6210,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>151</v>
       </c>
@@ -6234,7 +6228,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>154</v>
       </c>
@@ -6250,7 +6244,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>156</v>
       </c>
@@ -6268,7 +6262,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>159</v>
       </c>
@@ -6284,7 +6278,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>161</v>
       </c>
@@ -6302,7 +6296,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>164</v>
       </c>
@@ -6320,7 +6314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>167</v>
       </c>
@@ -6336,7 +6330,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>169</v>
       </c>
@@ -6352,7 +6346,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>171</v>
       </c>
@@ -6368,7 +6362,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>173</v>
       </c>
@@ -6388,7 +6382,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>177</v>
       </c>
@@ -6406,7 +6400,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>180</v>
       </c>
@@ -6422,7 +6416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>182</v>
       </c>
@@ -6438,7 +6432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>184</v>
       </c>
@@ -6454,7 +6448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>186</v>
       </c>
@@ -6470,7 +6464,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>188</v>
       </c>
@@ -6486,7 +6480,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>190</v>
       </c>
@@ -6502,7 +6496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>192</v>
       </c>
@@ -6520,7 +6514,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>195</v>
       </c>
@@ -6536,7 +6530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>197</v>
       </c>
@@ -6556,7 +6550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>201</v>
       </c>
@@ -6574,7 +6568,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>203</v>
       </c>
@@ -6592,7 +6586,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>206</v>
       </c>
@@ -6610,7 +6604,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>208</v>
       </c>
@@ -6626,7 +6620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>210</v>
       </c>
@@ -6642,7 +6636,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>212</v>
       </c>
@@ -6660,7 +6654,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>216</v>
       </c>
@@ -6678,7 +6672,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>219</v>
       </c>
@@ -6696,7 +6690,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>222</v>
       </c>
@@ -6714,7 +6708,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>225</v>
       </c>
@@ -6732,7 +6726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>228</v>
       </c>
@@ -6750,7 +6744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>231</v>
       </c>
@@ -6766,7 +6760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>232</v>
       </c>
@@ -6782,7 +6776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>234</v>
       </c>
@@ -6798,7 +6792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>236</v>
       </c>
@@ -6814,7 +6808,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>239</v>
       </c>
@@ -6830,7 +6824,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>241</v>
       </c>
@@ -6846,7 +6840,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>242</v>
       </c>
@@ -6862,7 +6856,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>244</v>
       </c>
@@ -6878,7 +6872,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>246</v>
       </c>
@@ -6896,7 +6890,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>249</v>
       </c>
@@ -6912,7 +6906,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>251</v>
       </c>
@@ -6928,7 +6922,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>253</v>
       </c>
@@ -6944,7 +6938,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>255</v>
       </c>
@@ -6960,7 +6954,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>257</v>
       </c>
@@ -6976,7 +6970,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>260</v>
       </c>
@@ -6996,7 +6990,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>262</v>
       </c>
@@ -7016,7 +7010,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>265</v>
       </c>
@@ -7032,7 +7026,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>267</v>
       </c>
@@ -7048,7 +7042,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>269</v>
       </c>
@@ -7066,7 +7060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>272</v>
       </c>
@@ -7082,7 +7076,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>274</v>
       </c>
@@ -7102,7 +7096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>278</v>
       </c>
@@ -7120,7 +7114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>281</v>
       </c>
@@ -7140,7 +7134,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>286</v>
       </c>
@@ -7156,7 +7150,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>289</v>
       </c>
@@ -7172,7 +7166,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>291</v>
       </c>
@@ -7188,7 +7182,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>293</v>
       </c>
@@ -7204,7 +7198,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>295</v>
       </c>
@@ -7220,7 +7214,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>297</v>
       </c>
@@ -7236,7 +7230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>299</v>
       </c>
@@ -7252,7 +7246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>301</v>
       </c>
@@ -7284,18 +7278,18 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.29296875" customWidth="1"/>
+    <col min="5" max="5" width="20.1171875" customWidth="1"/>
+    <col min="6" max="6" width="39.41015625" customWidth="1"/>
+    <col min="7" max="7" width="12.1171875" customWidth="1"/>
+    <col min="8" max="8" width="11.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7321,7 +7315,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>304</v>
       </c>
@@ -7338,7 +7332,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>309</v>
       </c>
@@ -7349,7 +7343,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>312</v>
       </c>
@@ -7360,7 +7354,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -7368,7 +7362,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -7376,7 +7370,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>318</v>
       </c>
@@ -7384,7 +7378,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -7392,7 +7386,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>322</v>
       </c>
@@ -7400,7 +7394,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>324</v>
       </c>
@@ -7408,7 +7402,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>326</v>
       </c>
@@ -7416,7 +7410,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -7424,7 +7418,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -7432,7 +7426,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>332</v>
       </c>
@@ -7440,7 +7434,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>334</v>
       </c>
@@ -7448,7 +7442,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>336</v>
       </c>
@@ -7456,7 +7450,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>338</v>
       </c>
@@ -7464,7 +7458,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>340</v>
       </c>
@@ -7472,7 +7466,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>342</v>
       </c>
@@ -7480,7 +7474,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>344</v>
       </c>
@@ -7488,7 +7482,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>346</v>
       </c>
@@ -7517,17 +7511,17 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.41015625" customWidth="1"/>
+    <col min="3" max="3" width="16.1171875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.1171875" customWidth="1"/>
+    <col min="6" max="6" width="12.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7567,18 +7561,18 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.87890625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.87890625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.29296875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="9" style="6"/>
-    <col min="9" max="9" width="9.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.87890625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.87890625" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7610,7 +7604,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>352</v>
       </c>
@@ -7633,7 +7627,7 @@
         <v>11.07752</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>357</v>
       </c>
@@ -7650,7 +7644,7 @@
         <v>8.3491499999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>359</v>
       </c>
@@ -7667,7 +7661,7 @@
         <v>7.3774605849999997</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>361</v>
       </c>
@@ -7684,7 +7678,7 @@
         <v>11.15441</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>364</v>
       </c>
@@ -7701,7 +7695,7 @@
         <v>11.43126</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
         <v>366</v>
       </c>
@@ -7718,7 +7712,7 @@
         <v>11.141666860000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
         <v>368</v>
       </c>
@@ -7735,7 +7729,7 @@
         <v>12.33878</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>370</v>
       </c>
@@ -7752,7 +7746,7 @@
         <v>11.341635350000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>372</v>
       </c>
@@ -7769,7 +7763,7 @@
         <v>10.98959125</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
         <v>374</v>
       </c>
@@ -7789,7 +7783,7 @@
         <v>6.9515172679999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
         <v>377</v>
       </c>
@@ -7806,7 +7800,7 @@
         <v>6.0838890000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
         <v>379</v>
       </c>
@@ -7826,7 +7820,7 @@
         <v>4.3446257729999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
         <v>382</v>
       </c>
@@ -7846,7 +7840,7 @@
         <v>4.479117295</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
         <v>385</v>
       </c>
@@ -7866,7 +7860,7 @@
         <v>4.3192465159999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
         <v>388</v>
       </c>
@@ -7886,7 +7880,7 @@
         <v>3.210779284</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="6" t="s">
         <v>391</v>
       </c>
@@ -7906,7 +7900,7 @@
         <v>3.7658887669999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>394</v>
       </c>
@@ -7923,7 +7917,7 @@
         <v>11.011961100000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
         <v>396</v>
       </c>
@@ -7940,7 +7934,7 @@
         <v>11.0345826</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20" s="6" t="s">
         <v>398</v>
       </c>
@@ -7957,7 +7951,7 @@
         <v>11.0679502</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
         <v>400</v>
       </c>
@@ -7974,7 +7968,7 @@
         <v>10.9027636</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
         <v>402</v>
       </c>
@@ -7991,7 +7985,7 @@
         <v>10.663505600000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23" s="6" t="s">
         <v>404</v>
       </c>
@@ -8008,7 +8002,7 @@
         <v>10.5922117</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A24" s="6" t="s">
         <v>406</v>
       </c>
@@ -8025,7 +8019,7 @@
         <v>10.5151523</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25" s="6" t="s">
         <v>408</v>
       </c>
@@ -8042,7 +8036,7 @@
         <v>10.447896399999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26" s="6" t="s">
         <v>410</v>
       </c>
@@ -8059,7 +8053,7 @@
         <v>10.3562007</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27" s="6" t="s">
         <v>412</v>
       </c>
@@ -8076,7 +8070,7 @@
         <v>10.289842800000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A28" s="6" t="s">
         <v>414</v>
       </c>
@@ -8093,7 +8087,7 @@
         <v>10.2194228</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29" s="6" t="s">
         <v>416</v>
       </c>
@@ -8110,7 +8104,7 @@
         <v>10.2309327</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
         <v>418</v>
       </c>
@@ -8127,7 +8121,7 @@
         <v>10.2292557</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31" s="6" t="s">
         <v>420</v>
       </c>
@@ -8144,7 +8138,7 @@
         <v>10.165725</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A32" s="6" t="s">
         <v>422</v>
       </c>
@@ -8161,7 +8155,7 @@
         <v>10.1473777</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33" s="6" t="s">
         <v>424</v>
       </c>
@@ -8178,7 +8172,7 @@
         <v>10.130095499999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="6" t="s">
         <v>426</v>
       </c>
@@ -8195,7 +8189,7 @@
         <v>10.142098000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
         <v>428</v>
       </c>
@@ -8212,7 +8206,7 @@
         <v>10.0862845</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="6" t="s">
         <v>430</v>
       </c>
@@ -8229,7 +8223,7 @@
         <v>10.0709014</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37" s="6" t="s">
         <v>432</v>
       </c>
@@ -8246,7 +8240,7 @@
         <v>10.001436200000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="6" t="s">
         <v>434</v>
       </c>
@@ -8263,7 +8257,7 @@
         <v>9.9436959999999992</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A39" s="6" t="s">
         <v>436</v>
       </c>
@@ -8280,7 +8274,7 @@
         <v>9.9533547999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="6" t="s">
         <v>438</v>
       </c>
@@ -8297,7 +8291,7 @@
         <v>9.8435267999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="6" t="s">
         <v>440</v>
       </c>
@@ -8314,7 +8308,7 @@
         <v>9.8217593999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A42" s="6" t="s">
         <v>442</v>
       </c>
@@ -8331,7 +8325,7 @@
         <v>9.8162769999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A43" s="6" t="s">
         <v>444</v>
       </c>
@@ -8348,7 +8342,7 @@
         <v>9.7734603</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
         <v>446</v>
       </c>
@@ -8359,7 +8353,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="6" t="s">
         <v>448</v>
       </c>
@@ -8376,7 +8370,7 @@
         <v>9.5722308999999992</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="6" t="s">
         <v>450</v>
       </c>
@@ -8393,7 +8387,7 @@
         <v>9.5706808999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="6" t="s">
         <v>452</v>
       </c>
@@ -8410,7 +8404,7 @@
         <v>9.5859552000000008</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48" s="6" t="s">
         <v>454</v>
       </c>
@@ -8427,7 +8421,7 @@
         <v>9.6088146000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="6" t="s">
         <v>456</v>
       </c>
@@ -8444,7 +8438,7 @@
         <v>9.5853300000000008</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50" s="6" t="s">
         <v>458</v>
       </c>
@@ -8461,7 +8455,7 @@
         <v>9.6254620000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51" s="6" t="s">
         <v>460</v>
       </c>
@@ -8478,7 +8472,7 @@
         <v>9.5128511000000007</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52" s="6" t="s">
         <v>462</v>
       </c>
@@ -8495,7 +8489,7 @@
         <v>9.3820446000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="6" t="s">
         <v>464</v>
       </c>
@@ -8512,7 +8506,7 @@
         <v>9.3266483000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" s="6" t="s">
         <v>466</v>
       </c>
@@ -8529,7 +8523,7 @@
         <v>9.2559213000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55" s="6" t="s">
         <v>468</v>
       </c>
@@ -8546,7 +8540,7 @@
         <v>9.1830957000000009</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56" s="6" t="s">
         <v>470</v>
       </c>
@@ -8563,7 +8557,7 @@
         <v>9.1547301000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="6" t="s">
         <v>472</v>
       </c>
@@ -8580,7 +8574,7 @@
         <v>9.1323585000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" s="6" t="s">
         <v>474</v>
       </c>
@@ -8597,7 +8591,7 @@
         <v>9.1355553999999994</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A59" s="6" t="s">
         <v>476</v>
       </c>
@@ -8614,7 +8608,7 @@
         <v>8.9711342999999992</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A60" s="6" t="s">
         <v>478</v>
       </c>
@@ -8631,7 +8625,7 @@
         <v>8.9080928999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61" s="6" t="s">
         <v>480</v>
       </c>
@@ -8648,7 +8642,7 @@
         <v>8.8834169999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62" s="6" t="s">
         <v>482</v>
       </c>
@@ -8665,7 +8659,7 @@
         <v>8.6821266999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A63" s="6" t="s">
         <v>484</v>
       </c>
@@ -8682,7 +8676,7 @@
         <v>8.5474571000000008</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64" s="6" t="s">
         <v>486</v>
       </c>
@@ -8699,7 +8693,7 @@
         <v>8.2472525999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65" s="6" t="s">
         <v>488</v>
       </c>
@@ -8716,7 +8710,7 @@
         <v>8.119173</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A66" s="6" t="s">
         <v>490</v>
       </c>
@@ -8733,7 +8727,7 @@
         <v>7.9301123999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A67" s="6" t="s">
         <v>492</v>
       </c>
@@ -8750,7 +8744,7 @@
         <v>7.8802045999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A68" s="6" t="s">
         <v>494</v>
       </c>
@@ -8767,7 +8761,7 @@
         <v>7.7681136000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A69" s="6" t="s">
         <v>496</v>
       </c>
@@ -8784,7 +8778,7 @@
         <v>7.7621115999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A70" s="6" t="s">
         <v>498</v>
       </c>
@@ -8801,7 +8795,7 @@
         <v>7.7060770999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71" s="6" t="s">
         <v>500</v>
       </c>
@@ -8818,7 +8812,7 @@
         <v>7.5885300000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72" s="6" t="s">
         <v>502</v>
       </c>
@@ -8835,7 +8829,7 @@
         <v>7.6093633000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73" s="6" t="s">
         <v>504</v>
       </c>
@@ -8852,7 +8846,7 @@
         <v>7.5450198000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A74" s="6" t="s">
         <v>506</v>
       </c>
@@ -8869,7 +8863,7 @@
         <v>7.4086635999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A75" s="6" t="s">
         <v>508</v>
       </c>
@@ -8886,7 +8880,7 @@
         <v>7.2847869999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A76" s="6" t="s">
         <v>510</v>
       </c>
@@ -8903,7 +8897,7 @@
         <v>7.0982067999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77" s="6" t="s">
         <v>512</v>
       </c>
@@ -8920,7 +8914,7 @@
         <v>6.7085695999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78" s="6" t="s">
         <v>514</v>
       </c>
@@ -8937,7 +8931,7 @@
         <v>6.4632639999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A79" s="6" t="s">
         <v>516</v>
       </c>
@@ -8954,7 +8948,7 @@
         <v>6.2505591000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A80" s="6" t="s">
         <v>518</v>
       </c>
@@ -8971,7 +8965,7 @@
         <v>6.1096025000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A81" s="6" t="s">
         <v>520</v>
       </c>
@@ -8988,7 +8982,7 @@
         <v>5.9974309999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82" s="6" t="s">
         <v>522</v>
       </c>
@@ -9005,7 +8999,7 @@
         <v>5.9375637000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A83" s="6" t="s">
         <v>524</v>
       </c>
@@ -9022,7 +9016,7 @@
         <v>5.8864787999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A84" s="6" t="s">
         <v>526</v>
       </c>
@@ -9039,7 +9033,7 @@
         <v>5.7441800000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A85" s="6" t="s">
         <v>528</v>
       </c>
@@ -9050,7 +9044,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A86" s="6" t="s">
         <v>530</v>
       </c>
@@ -9061,7 +9055,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A87" s="6" t="s">
         <v>532</v>
       </c>
@@ -9072,7 +9066,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A88" s="6" t="s">
         <v>534</v>
       </c>
@@ -9083,7 +9077,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A89" s="6" t="s">
         <v>536</v>
       </c>
@@ -9094,7 +9088,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A90" s="6" t="s">
         <v>538</v>
       </c>
@@ -9111,7 +9105,7 @@
         <v>4.7612300000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A91" s="6" t="s">
         <v>540</v>
       </c>
@@ -9128,7 +9122,7 @@
         <v>4.7083500000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A92" s="6" t="s">
         <v>542</v>
       </c>
@@ -9145,7 +9139,7 @@
         <v>4.4258375000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A93" s="6" t="s">
         <v>544</v>
       </c>
@@ -9162,7 +9156,7 @@
         <v>5.6909725</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A94" s="6" t="s">
         <v>546</v>
       </c>
@@ -9179,7 +9173,7 @@
         <v>5.8914093000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A95" s="6" t="s">
         <v>548</v>
       </c>
@@ -9196,7 +9190,7 @@
         <v>6.3639118999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A96" s="6" t="s">
         <v>550</v>
       </c>
@@ -9213,7 +9207,7 @@
         <v>6.4793683</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A97" s="6" t="s">
         <v>552</v>
       </c>
@@ -9230,7 +9224,7 @@
         <v>6.8484579999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A98" s="6" t="s">
         <v>554</v>
       </c>
@@ -9247,7 +9241,7 @@
         <v>6.6879511000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A99" s="6" t="s">
         <v>556</v>
       </c>
@@ -9258,7 +9252,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A100" s="6" t="s">
         <v>558</v>
       </c>
@@ -9275,7 +9269,7 @@
         <v>6.7734556000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A101" s="6" t="s">
         <v>560</v>
       </c>
@@ -9292,7 +9286,7 @@
         <v>6.7380298999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A102" s="6" t="s">
         <v>562</v>
       </c>
@@ -9309,7 +9303,7 @@
         <v>6.7623293000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A103" s="6" t="s">
         <v>564</v>
       </c>
@@ -9326,7 +9320,7 @@
         <v>6.7269133999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A104" s="6" t="s">
         <v>566</v>
       </c>
@@ -9343,7 +9337,7 @@
         <v>6.7483237999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A105" s="6" t="s">
         <v>568</v>
       </c>
@@ -9360,7 +9354,7 @@
         <v>6.6876663000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A106" s="6" t="s">
         <v>570</v>
       </c>
@@ -9377,7 +9371,7 @@
         <v>6.5899096999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A107" s="6" t="s">
         <v>572</v>
       </c>
@@ -9394,7 +9388,7 @@
         <v>6.6295678999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A108" s="6" t="s">
         <v>574</v>
       </c>
@@ -9411,7 +9405,7 @@
         <v>6.4015065</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A109" s="6" t="s">
         <v>576</v>
       </c>
@@ -9428,7 +9422,7 @@
         <v>6.2517303000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A110" s="6" t="s">
         <v>578</v>
       </c>
@@ -9445,7 +9439,7 @@
         <v>6.1032045999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A111" s="6" t="s">
         <v>580</v>
       </c>
@@ -9462,7 +9456,7 @@
         <v>5.8428281000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A112" s="6" t="s">
         <v>582</v>
       </c>
@@ -9479,7 +9473,7 @@
         <v>5.4278765</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A113" s="6" t="s">
         <v>584</v>
       </c>
@@ -9496,7 +9490,7 @@
         <v>5.3930495000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A114" s="6" t="s">
         <v>586</v>
       </c>
@@ -9513,7 +9507,7 @@
         <v>5.2507732999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A115" s="6" t="s">
         <v>588</v>
       </c>
@@ -9530,7 +9524,7 @@
         <v>5.3036747999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A116" s="6" t="s">
         <v>590</v>
       </c>
@@ -9547,7 +9541,7 @@
         <v>5.2030282000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A117" s="6" t="s">
         <v>592</v>
       </c>
@@ -9564,7 +9558,7 @@
         <v>5.0919143</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A118" s="6" t="s">
         <v>594</v>
       </c>
@@ -9581,7 +9575,7 @@
         <v>4.9295230999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A119" s="6" t="s">
         <v>596</v>
       </c>
@@ -9598,7 +9592,7 @@
         <v>4.7615606000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A120" s="6" t="s">
         <v>598</v>
       </c>
@@ -9615,7 +9609,7 @@
         <v>4.6380511999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A121" s="6" t="s">
         <v>600</v>
       </c>
@@ -9632,7 +9626,7 @@
         <v>4.2871622</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A122" s="6" t="s">
         <v>601</v>
       </c>
@@ -9649,7 +9643,7 @@
         <v>4.2871622</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A123" s="6" t="s">
         <v>603</v>
       </c>
@@ -9666,7 +9660,7 @@
         <v>3.8911304000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A124" s="6" t="s">
         <v>605</v>
       </c>
@@ -9683,7 +9677,7 @@
         <v>3.6759015000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="29.1">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A125" s="11" t="s">
         <v>607</v>
       </c>
@@ -9700,7 +9694,7 @@
         <v>3.8218160999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="29.1">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A126" s="11" t="s">
         <v>609</v>
       </c>
@@ -9717,7 +9711,7 @@
         <v>3.8031359</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="29.1">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A127" s="11" t="s">
         <v>611</v>
       </c>
@@ -9734,7 +9728,7 @@
         <v>3.6109979999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="29.1">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A128" s="11" t="s">
         <v>613</v>
       </c>
@@ -9751,7 +9745,7 @@
         <v>3.6660061000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="29.1">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A129" s="11" t="s">
         <v>615</v>
       </c>
@@ -9768,7 +9762,7 @@
         <v>3.9184977000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="29.1">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A130" s="11" t="s">
         <v>617</v>
       </c>
@@ -9785,7 +9779,7 @@
         <v>4.2579606999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A131" s="6" t="s">
         <v>619</v>
       </c>
@@ -9796,7 +9790,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="29.1">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A132" s="11" t="s">
         <v>621</v>
       </c>
@@ -9813,7 +9807,7 @@
         <v>4.0977458000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="29.1">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A133" s="11" t="s">
         <v>623</v>
       </c>
@@ -9830,7 +9824,7 @@
         <v>3.9746700000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="29.1">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A134" s="11" t="s">
         <v>625</v>
       </c>
@@ -9847,7 +9841,7 @@
         <v>3.87799</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="29.1">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A135" s="11" t="s">
         <v>627</v>
       </c>
@@ -9864,7 +9858,7 @@
         <v>3.7466865</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="29.1">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A136" s="11" t="s">
         <v>629</v>
       </c>
@@ -9881,7 +9875,7 @@
         <v>3.5640710000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="29.1">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A137" s="11" t="s">
         <v>631</v>
       </c>
@@ -9898,7 +9892,7 @@
         <v>3.4487502000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="29.1">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A138" s="11" t="s">
         <v>633</v>
       </c>
@@ -9915,7 +9909,7 @@
         <v>3.4856153000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="29.1">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A139" s="11" t="s">
         <v>635</v>
       </c>
@@ -9932,7 +9926,7 @@
         <v>4.7137644999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="29.1">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A140" s="11" t="s">
         <v>637</v>
       </c>
@@ -9949,7 +9943,7 @@
         <v>4.9371045000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="29.1">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A141" s="11" t="s">
         <v>639</v>
       </c>
@@ -9966,7 +9960,7 @@
         <v>5.1819977000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="29.1">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A142" s="11" t="s">
         <v>641</v>
       </c>
@@ -9983,7 +9977,7 @@
         <v>5.4601943000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="29.1">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A143" s="11" t="s">
         <v>643</v>
       </c>
@@ -10000,7 +9994,7 @@
         <v>6.2871221000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="29.1">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A144" s="11" t="s">
         <v>645</v>
       </c>
@@ -10031,16 +10025,16 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.29296875" customWidth="1"/>
+    <col min="3" max="3" width="64.703125" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.41015625" customWidth="1"/>
+    <col min="6" max="6" width="12.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10060,7 +10054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -10077,7 +10071,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -10097,7 +10091,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -10114,7 +10108,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -10131,7 +10125,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -10151,7 +10145,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -10171,7 +10165,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -10188,7 +10182,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -10205,7 +10199,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -10222,7 +10216,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -10242,7 +10236,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -10262,7 +10256,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -10282,7 +10276,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -10302,7 +10296,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -10319,7 +10313,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -10336,7 +10330,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -10353,7 +10347,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>176</v>
       </c>
@@ -10373,7 +10367,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>179</v>
       </c>
@@ -10390,7 +10384,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>194</v>
       </c>
@@ -10407,7 +10401,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -10427,7 +10421,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -10444,7 +10438,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>214</v>
       </c>
@@ -10461,7 +10455,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>218</v>
       </c>
@@ -10478,7 +10472,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -10495,7 +10489,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -10512,7 +10506,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -10529,7 +10523,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>230</v>
       </c>
@@ -10546,7 +10540,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>248</v>
       </c>
@@ -10563,7 +10557,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -10583,7 +10577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -10600,7 +10594,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>277</v>
       </c>
@@ -10620,7 +10614,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>284</v>
       </c>
@@ -10640,7 +10634,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>728</v>
       </c>
@@ -10657,7 +10651,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -10677,7 +10671,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -10694,7 +10688,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -10711,7 +10705,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -10731,7 +10725,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -10748,7 +10742,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>747</v>
       </c>
@@ -10768,7 +10762,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>752</v>
       </c>
@@ -10788,7 +10782,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>757</v>
       </c>
@@ -10808,7 +10802,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>762</v>
       </c>
@@ -10828,7 +10822,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -10848,7 +10842,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>348</v>
       </c>
@@ -10868,7 +10862,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>776</v>
       </c>
@@ -10977,24 +10971,24 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.29296875" customWidth="1"/>
+    <col min="2" max="2" width="44.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.29296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.87890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.29296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.29296875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.29296875" customWidth="1"/>
+    <col min="12" max="12" width="7.41015625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11038,7 +11032,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>788</v>
       </c>
@@ -11066,7 +11060,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>788</v>
       </c>
@@ -11077,7 +11071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>788</v>
       </c>
@@ -11088,7 +11082,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>794</v>
       </c>
@@ -11122,7 +11116,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>794</v>
       </c>
@@ -11133,7 +11127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>794</v>
       </c>
@@ -11144,7 +11138,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>796</v>
       </c>
@@ -11176,7 +11170,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>796</v>
       </c>
@@ -11187,7 +11181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>796</v>
       </c>
@@ -11198,7 +11192,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>798</v>
       </c>
@@ -11230,7 +11224,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>798</v>
       </c>
@@ -11241,7 +11235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>798</v>
       </c>
@@ -11252,7 +11246,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>800</v>
       </c>
@@ -11284,7 +11278,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>800</v>
       </c>
@@ -11295,7 +11289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>800</v>
       </c>
@@ -11306,7 +11300,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>802</v>
       </c>
@@ -11338,7 +11332,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>802</v>
       </c>
@@ -11349,7 +11343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>802</v>
       </c>
@@ -11360,7 +11354,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>804</v>
       </c>
@@ -11392,7 +11386,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>804</v>
       </c>
@@ -11403,7 +11397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>804</v>
       </c>
@@ -11414,7 +11408,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>806</v>
       </c>
@@ -11446,7 +11440,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>806</v>
       </c>
@@ -11457,7 +11451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>806</v>
       </c>
@@ -11468,7 +11462,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>808</v>
       </c>
@@ -11502,7 +11496,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>808</v>
       </c>
@@ -11513,7 +11507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>808</v>
       </c>
@@ -11524,7 +11518,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>811</v>
       </c>
@@ -11556,7 +11550,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>811</v>
       </c>
@@ -11567,7 +11561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>811</v>
       </c>
@@ -11578,7 +11572,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>813</v>
       </c>
@@ -11610,7 +11604,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>813</v>
       </c>
@@ -11621,7 +11615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>813</v>
       </c>
@@ -11632,7 +11626,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>815</v>
       </c>
@@ -11664,7 +11658,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>815</v>
       </c>
@@ -11675,7 +11669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>815</v>
       </c>
@@ -11686,7 +11680,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>816</v>
       </c>
@@ -11718,7 +11712,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>816</v>
       </c>
@@ -11729,7 +11723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>816</v>
       </c>
@@ -11740,7 +11734,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>817</v>
       </c>
@@ -11772,7 +11766,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>817</v>
       </c>
@@ -11783,7 +11777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>817</v>
       </c>
@@ -11794,7 +11788,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>819</v>
       </c>
@@ -11826,7 +11820,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>819</v>
       </c>
@@ -11837,7 +11831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>819</v>
       </c>
@@ -11848,7 +11842,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>820</v>
       </c>
@@ -11880,7 +11874,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>820</v>
       </c>
@@ -11891,7 +11885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>820</v>
       </c>
@@ -11902,7 +11896,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>822</v>
       </c>
@@ -11934,7 +11928,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>822</v>
       </c>
@@ -11945,7 +11939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>822</v>
       </c>
@@ -11956,7 +11950,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>824</v>
       </c>
@@ -11988,7 +11982,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>824</v>
       </c>
@@ -11999,7 +11993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>824</v>
       </c>
@@ -12010,7 +12004,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>826</v>
       </c>
@@ -12042,7 +12036,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>826</v>
       </c>
@@ -12053,7 +12047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>826</v>
       </c>
@@ -12064,7 +12058,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>827</v>
       </c>
@@ -12096,7 +12090,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>827</v>
       </c>
@@ -12107,7 +12101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>827</v>
       </c>
@@ -12118,7 +12112,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>828</v>
       </c>
@@ -12150,7 +12144,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>828</v>
       </c>
@@ -12161,7 +12155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>828</v>
       </c>
@@ -12172,7 +12166,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>829</v>
       </c>
@@ -12204,7 +12198,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>829</v>
       </c>
@@ -12215,7 +12209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>829</v>
       </c>
@@ -12226,7 +12220,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>831</v>
       </c>
@@ -12258,7 +12252,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>831</v>
       </c>
@@ -12269,7 +12263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>831</v>
       </c>
@@ -12280,7 +12274,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>832</v>
       </c>
@@ -12312,7 +12306,7 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>832</v>
       </c>
@@ -12323,7 +12317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>832</v>
       </c>
@@ -12334,7 +12328,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>833</v>
       </c>
@@ -12366,7 +12360,7 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>833</v>
       </c>
@@ -12377,7 +12371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>833</v>
       </c>
@@ -12388,7 +12382,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>834</v>
       </c>
@@ -12420,7 +12414,7 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>834</v>
       </c>
@@ -12431,7 +12425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>834</v>
       </c>
@@ -12442,7 +12436,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>835</v>
       </c>
@@ -12474,7 +12468,7 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>835</v>
       </c>
@@ -12485,7 +12479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>835</v>
       </c>
@@ -12496,7 +12490,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>836</v>
       </c>
@@ -12528,7 +12522,7 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>836</v>
       </c>
@@ -12539,7 +12533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>836</v>
       </c>
@@ -12550,7 +12544,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>837</v>
       </c>
@@ -12582,7 +12576,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>837</v>
       </c>
@@ -12593,7 +12587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>837</v>
       </c>
@@ -12604,7 +12598,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>838</v>
       </c>
@@ -12636,7 +12630,7 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>838</v>
       </c>
@@ -12647,7 +12641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>838</v>
       </c>
@@ -12658,7 +12652,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>839</v>
       </c>
@@ -12690,7 +12684,7 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>839</v>
       </c>
@@ -12701,7 +12695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>839</v>
       </c>
@@ -12712,7 +12706,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>841</v>
       </c>
@@ -12744,7 +12738,7 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>841</v>
       </c>
@@ -12755,7 +12749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>841</v>
       </c>
@@ -12766,7 +12760,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>842</v>
       </c>
@@ -12798,7 +12792,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>842</v>
       </c>
@@ -12809,7 +12803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>842</v>
       </c>
@@ -12820,7 +12814,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>844</v>
       </c>
@@ -12852,7 +12846,7 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>844</v>
       </c>
@@ -12863,7 +12857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>844</v>
       </c>
@@ -12874,7 +12868,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>846</v>
       </c>
@@ -12906,7 +12900,7 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>846</v>
       </c>
@@ -12917,7 +12911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>846</v>
       </c>
@@ -12928,7 +12922,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>847</v>
       </c>
@@ -12958,7 +12952,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>847</v>
       </c>
@@ -12969,7 +12963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>847</v>
       </c>
@@ -12980,7 +12974,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>849</v>
       </c>
@@ -13010,7 +13004,7 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>849</v>
       </c>
@@ -13021,7 +13015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>849</v>
       </c>
@@ -13032,7 +13026,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>850</v>
       </c>
@@ -13064,7 +13058,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>850</v>
       </c>
@@ -13075,7 +13069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>850</v>
       </c>
@@ -13086,7 +13080,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>852</v>
       </c>
@@ -13118,7 +13112,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>852</v>
       </c>
@@ -13129,7 +13123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>852</v>
       </c>
@@ -13140,7 +13134,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>854</v>
       </c>
@@ -13172,7 +13166,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>854</v>
       </c>
@@ -13183,7 +13177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>854</v>
       </c>
@@ -13194,7 +13188,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>856</v>
       </c>
@@ -13226,7 +13220,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>856</v>
       </c>
@@ -13237,7 +13231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>856</v>
       </c>
@@ -13248,7 +13242,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>858</v>
       </c>
@@ -13280,7 +13274,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>858</v>
       </c>
@@ -13291,7 +13285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>858</v>
       </c>
@@ -13302,7 +13296,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>859</v>
       </c>
@@ -13334,7 +13328,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>859</v>
       </c>
@@ -13345,7 +13339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>859</v>
       </c>
@@ -13356,7 +13350,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>860</v>
       </c>
@@ -13388,7 +13382,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>860</v>
       </c>
@@ -13399,7 +13393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>860</v>
       </c>
@@ -13410,7 +13404,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>862</v>
       </c>
@@ -13442,7 +13436,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>862</v>
       </c>
@@ -13453,7 +13447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>862</v>
       </c>
@@ -13464,7 +13458,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>863</v>
       </c>
@@ -13496,7 +13490,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>863</v>
       </c>
@@ -13507,7 +13501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>863</v>
       </c>
@@ -13518,7 +13512,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>864</v>
       </c>
@@ -13550,7 +13544,7 @@
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>864</v>
       </c>
@@ -13561,7 +13555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>864</v>
       </c>
@@ -13572,7 +13566,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>865</v>
       </c>
@@ -13604,7 +13598,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>865</v>
       </c>
@@ -13615,7 +13609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>865</v>
       </c>
@@ -13626,7 +13620,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>867</v>
       </c>
@@ -13658,7 +13652,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>867</v>
       </c>
@@ -13669,7 +13663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>867</v>
       </c>
@@ -13680,7 +13674,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>868</v>
       </c>
@@ -13712,7 +13706,7 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>868</v>
       </c>
@@ -13723,7 +13717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>868</v>
       </c>
@@ -13734,7 +13728,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>869</v>
       </c>
@@ -13766,7 +13760,7 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>869</v>
       </c>
@@ -13777,7 +13771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>869</v>
       </c>
@@ -13788,7 +13782,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>871</v>
       </c>
@@ -13820,7 +13814,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>871</v>
       </c>
@@ -13831,7 +13825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>871</v>
       </c>
@@ -13842,7 +13836,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>872</v>
       </c>
@@ -13874,7 +13868,7 @@
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>872</v>
       </c>
@@ -13885,7 +13879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>872</v>
       </c>
@@ -13896,7 +13890,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>873</v>
       </c>
@@ -13928,7 +13922,7 @@
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>873</v>
       </c>
@@ -13939,7 +13933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>873</v>
       </c>
@@ -13950,7 +13944,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>875</v>
       </c>
@@ -13982,7 +13976,7 @@
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>875</v>
       </c>
@@ -13993,7 +13987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>875</v>
       </c>
@@ -14004,7 +13998,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>876</v>
       </c>
@@ -14036,7 +14030,7 @@
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>876</v>
       </c>
@@ -14047,7 +14041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>876</v>
       </c>
@@ -14058,7 +14052,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
         <v>878</v>
       </c>
@@ -14090,7 +14084,7 @@
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>878</v>
       </c>
@@ -14101,7 +14095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>878</v>
       </c>
@@ -14112,7 +14106,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>879</v>
       </c>
@@ -14144,7 +14138,7 @@
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>879</v>
       </c>
@@ -14155,7 +14149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>879</v>
       </c>
@@ -14166,7 +14160,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>880</v>
       </c>
@@ -14198,7 +14192,7 @@
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
         <v>880</v>
       </c>
@@ -14209,7 +14203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>880</v>
       </c>
@@ -14220,7 +14214,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>881</v>
       </c>
@@ -14252,7 +14246,7 @@
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>881</v>
       </c>
@@ -14263,7 +14257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>881</v>
       </c>
@@ -14274,7 +14268,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>883</v>
       </c>
@@ -14306,7 +14300,7 @@
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>883</v>
       </c>
@@ -14317,7 +14311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>883</v>
       </c>
@@ -14328,7 +14322,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>884</v>
       </c>
@@ -14360,7 +14354,7 @@
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>884</v>
       </c>
@@ -14371,7 +14365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>884</v>
       </c>
@@ -14382,7 +14376,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>886</v>
       </c>
@@ -14414,7 +14408,7 @@
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>886</v>
       </c>
@@ -14425,7 +14419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>886</v>
       </c>
@@ -14436,7 +14430,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>889</v>
       </c>
@@ -14466,7 +14460,7 @@
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>889</v>
       </c>
@@ -14477,7 +14471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>889</v>
       </c>
@@ -14488,7 +14482,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>891</v>
       </c>
@@ -14520,7 +14514,7 @@
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>891</v>
       </c>
@@ -14531,7 +14525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>891</v>
       </c>
@@ -14542,7 +14536,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>893</v>
       </c>
@@ -14574,7 +14568,7 @@
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>893</v>
       </c>
@@ -14585,7 +14579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>893</v>
       </c>
@@ -14596,7 +14590,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>894</v>
       </c>
@@ -14628,7 +14622,7 @@
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
         <v>894</v>
       </c>
@@ -14639,7 +14633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
         <v>894</v>
       </c>
@@ -14650,7 +14644,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>895</v>
       </c>
@@ -14682,7 +14676,7 @@
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>895</v>
       </c>
@@ -14693,7 +14687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>895</v>
       </c>
@@ -14704,7 +14698,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>897</v>
       </c>
@@ -14736,7 +14730,7 @@
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>897</v>
       </c>
@@ -14747,7 +14741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>897</v>
       </c>
@@ -14758,7 +14752,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>899</v>
       </c>
@@ -14790,7 +14784,7 @@
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>899</v>
       </c>
@@ -14801,7 +14795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
         <v>899</v>
       </c>
@@ -14812,7 +14806,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>901</v>
       </c>
@@ -14844,7 +14838,7 @@
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
         <v>901</v>
       </c>
@@ -14855,7 +14849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>901</v>
       </c>
@@ -14866,7 +14860,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>902</v>
       </c>
@@ -14898,7 +14892,7 @@
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>902</v>
       </c>
@@ -14909,7 +14903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>902</v>
       </c>
@@ -14920,7 +14914,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>903</v>
       </c>
@@ -14952,7 +14946,7 @@
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
         <v>903</v>
       </c>
@@ -14963,7 +14957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>903</v>
       </c>
@@ -14974,7 +14968,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
         <v>905</v>
       </c>
@@ -15006,7 +15000,7 @@
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>905</v>
       </c>
@@ -15017,7 +15011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>905</v>
       </c>
@@ -15028,7 +15022,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>907</v>
       </c>
@@ -15060,7 +15054,7 @@
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
         <v>907</v>
       </c>
@@ -15071,7 +15065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="14.1" customHeight="1">
+    <row r="226" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
         <v>907</v>
       </c>
@@ -15082,7 +15076,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="14.1" customHeight="1">
+    <row r="227" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
         <v>908</v>
       </c>
@@ -15114,7 +15108,7 @@
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
     </row>
-    <row r="228" spans="1:14" ht="14.1" customHeight="1">
+    <row r="228" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
         <v>908</v>
       </c>
@@ -15125,7 +15119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="14.1" customHeight="1">
+    <row r="229" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A229" t="s">
         <v>908</v>
       </c>
@@ -15136,7 +15130,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="14.1" customHeight="1">
+    <row r="230" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
         <v>909</v>
       </c>
@@ -15168,7 +15162,7 @@
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
     </row>
-    <row r="231" spans="1:14" ht="14.1" customHeight="1">
+    <row r="231" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
         <v>909</v>
       </c>
@@ -15179,7 +15173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="14.1" customHeight="1">
+    <row r="232" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A232" t="s">
         <v>909</v>
       </c>
@@ -15190,7 +15184,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="14.1" customHeight="1">
+    <row r="233" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
         <v>910</v>
       </c>
@@ -15222,7 +15216,7 @@
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
         <v>910</v>
       </c>
@@ -15233,7 +15227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
         <v>910</v>
       </c>
@@ -15244,7 +15238,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
         <v>911</v>
       </c>
@@ -15276,7 +15270,7 @@
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
         <v>911</v>
       </c>
@@ -15287,7 +15281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
         <v>911</v>
       </c>
@@ -15298,7 +15292,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
         <v>913</v>
       </c>
@@ -15330,7 +15324,7 @@
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
         <v>913</v>
       </c>
@@ -15341,7 +15335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
         <v>913</v>
       </c>
@@ -15366,25 +15360,25 @@
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.87890625" customWidth="1"/>
+    <col min="2" max="2" width="49.1171875" customWidth="1"/>
+    <col min="3" max="3" width="28.703125" customWidth="1"/>
+    <col min="4" max="4" width="14.29296875" customWidth="1"/>
+    <col min="5" max="5" width="17.1171875" customWidth="1"/>
+    <col min="6" max="6" width="14.703125" customWidth="1"/>
+    <col min="7" max="7" width="16.1171875" customWidth="1"/>
+    <col min="8" max="8" width="11.703125" customWidth="1"/>
+    <col min="9" max="9" width="12.87890625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.29296875" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.41015625" customWidth="1"/>
+    <col min="14" max="14" width="15.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15428,7 +15422,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.95">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>915</v>
       </c>
@@ -15464,7 +15458,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>915</v>
       </c>
@@ -15486,7 +15480,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="15.95">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>924</v>
       </c>
@@ -15522,7 +15516,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>924</v>
       </c>
@@ -15544,7 +15538,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="15.95">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>932</v>
       </c>
@@ -15578,7 +15572,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="15.95">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>939</v>
       </c>
@@ -15610,7 +15604,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>939</v>
       </c>
@@ -15632,7 +15626,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="15.95">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>945</v>
       </c>
@@ -15664,7 +15658,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>945</v>
       </c>
@@ -15686,7 +15680,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="15.95">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>952</v>
       </c>
@@ -15720,7 +15714,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="15.95">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>959</v>
       </c>
@@ -15754,7 +15748,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="15.95">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>963</v>
       </c>
@@ -15788,7 +15782,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="15.95">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>966</v>
       </c>
@@ -15822,7 +15816,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="15.95">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>969</v>
       </c>
@@ -15856,7 +15850,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="15.95">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>969</v>
       </c>
@@ -15878,7 +15872,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="15.95">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>976</v>
       </c>
@@ -15912,7 +15906,7 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>976</v>
       </c>
@@ -15934,7 +15928,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="15.95">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>980</v>
       </c>
@@ -15968,7 +15962,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>980</v>
       </c>
@@ -15990,7 +15984,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>980</v>
       </c>
@@ -16012,7 +16006,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="15.95">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>985</v>
       </c>
@@ -16048,7 +16042,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>985</v>
       </c>
@@ -16070,7 +16064,7 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="15.95">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>991</v>
       </c>
@@ -16104,7 +16098,7 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" ht="15.95">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>996</v>
       </c>
@@ -16138,7 +16132,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" ht="15.95">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>999</v>
       </c>
@@ -16172,7 +16166,7 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" ht="15.95">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>1002</v>
       </c>
@@ -16206,7 +16200,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>1002</v>
       </c>
@@ -16228,7 +16222,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" ht="15.95">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>1010</v>
       </c>
@@ -16262,7 +16256,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>1010</v>
       </c>
@@ -16284,7 +16278,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>1010</v>
       </c>
@@ -16304,7 +16298,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>1010</v>
       </c>
@@ -16324,7 +16318,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" ht="15.95">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>1015</v>
       </c>
@@ -16356,7 +16350,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>1015</v>
       </c>
@@ -16378,7 +16372,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" ht="15.95">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>1019</v>
       </c>
@@ -16412,7 +16406,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>1019</v>
       </c>
@@ -16434,7 +16428,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14" ht="15.95">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>1023</v>
       </c>
@@ -16468,7 +16462,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:14" ht="15.95">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>1028</v>
       </c>
@@ -16502,7 +16496,7 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>1033</v>
       </c>
@@ -16524,7 +16518,7 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>1033</v>
       </c>
@@ -16546,7 +16540,7 @@
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:14" ht="15.95">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>1034</v>
       </c>
@@ -16580,7 +16574,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14" ht="15.95">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>1039</v>
       </c>
@@ -16612,7 +16606,7 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>1039</v>
       </c>
@@ -16634,7 +16628,7 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:14" ht="15.95">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>1043</v>
       </c>
@@ -16668,7 +16662,7 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:14" ht="15.95">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>1047</v>
       </c>
@@ -16702,7 +16696,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:14" ht="15.95">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>1050</v>
       </c>
@@ -16736,7 +16730,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>1050</v>
       </c>
@@ -16758,7 +16752,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:14" ht="15.95">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>1056</v>
       </c>
@@ -16792,7 +16786,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" ht="15.95">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>1059</v>
       </c>
@@ -16826,7 +16820,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" ht="15.95">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>1064</v>
       </c>
@@ -16860,7 +16854,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" ht="15.95">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>1067</v>
       </c>
@@ -16894,7 +16888,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14" ht="15.95">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>1069</v>
       </c>
@@ -16928,7 +16922,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>1069</v>
       </c>
@@ -16950,7 +16944,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" ht="15.95">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>1073</v>
       </c>
@@ -16984,7 +16978,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" ht="15.95">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>1075</v>
       </c>
@@ -17018,7 +17012,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>1075</v>
       </c>
@@ -17040,7 +17034,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>1075</v>
       </c>
@@ -17062,7 +17056,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" ht="15.95">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>1080</v>
       </c>
@@ -17094,7 +17088,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" ht="15.95">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>1084</v>
       </c>
@@ -17130,7 +17124,7 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>1084</v>
       </c>
@@ -17152,7 +17146,7 @@
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" ht="15.95">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>1088</v>
       </c>
@@ -17186,7 +17180,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>1088</v>
       </c>
@@ -17205,22 +17199,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE7CD6-3992-47BC-A701-56D724BB2518}">
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.1171875" customWidth="1"/>
+    <col min="5" max="5" width="30.703125" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -17264,7 +17258,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1096</v>
       </c>
@@ -17293,7 +17287,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1096</v>
       </c>
@@ -17304,7 +17298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>1101</v>
       </c>
@@ -17333,7 +17327,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>1104</v>
       </c>
@@ -17365,7 +17359,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>1109</v>
       </c>
@@ -17394,7 +17388,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>1113</v>
       </c>
@@ -17426,7 +17420,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>1113</v>
       </c>
@@ -17437,7 +17431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>1118</v>
       </c>
@@ -17466,7 +17460,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>1122</v>
       </c>
@@ -17498,7 +17492,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>1127</v>
       </c>
@@ -17527,7 +17521,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>1129</v>
       </c>
@@ -17559,7 +17553,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>1134</v>
       </c>
@@ -17594,7 +17588,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>1139</v>
       </c>
@@ -17623,7 +17617,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>1143</v>
       </c>
@@ -17652,7 +17646,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>1146</v>
       </c>
@@ -17681,7 +17675,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>1149</v>
       </c>
@@ -17716,7 +17710,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>1155</v>
       </c>
@@ -17745,7 +17739,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>1158</v>
       </c>
@@ -17768,7 +17762,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>1160</v>
       </c>
@@ -17791,7 +17785,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>1162</v>
       </c>
@@ -17817,7 +17811,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>1165</v>
       </c>
@@ -17840,7 +17834,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>1167</v>
       </c>
@@ -17866,7 +17860,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>1169</v>
       </c>
@@ -17889,7 +17883,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>1171</v>
       </c>
@@ -17912,7 +17906,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>1173</v>
       </c>
@@ -17938,7 +17932,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>1175</v>
       </c>
@@ -17970,7 +17964,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>1179</v>
       </c>
@@ -17999,7 +17993,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>1182</v>
       </c>
@@ -18022,7 +18016,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>1184</v>
       </c>
@@ -18048,7 +18042,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>1186</v>
       </c>
@@ -18074,7 +18068,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>1188</v>
       </c>
@@ -18103,7 +18097,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>1192</v>
       </c>
@@ -18132,7 +18126,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>1196</v>
       </c>
@@ -18164,7 +18158,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>1200</v>
       </c>
@@ -18196,7 +18190,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>1205</v>
       </c>
@@ -18219,7 +18213,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>1207</v>
       </c>
@@ -18245,7 +18239,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>1209</v>
       </c>
@@ -18271,7 +18265,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>1211</v>
       </c>
@@ -18297,7 +18291,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>1213</v>
       </c>
@@ -18323,7 +18317,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>1215</v>
       </c>
@@ -18355,7 +18349,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>1217</v>
       </c>
@@ -18384,7 +18378,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>1221</v>
       </c>
@@ -18407,7 +18401,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>1223</v>
       </c>
@@ -18430,7 +18424,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>1225</v>
       </c>
@@ -18456,7 +18450,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>1227</v>
       </c>
@@ -18479,7 +18473,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>1229</v>
       </c>
@@ -18511,7 +18505,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>1232</v>
       </c>
@@ -18540,7 +18534,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>1236</v>
       </c>
@@ -18572,7 +18566,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>1240</v>
       </c>
@@ -18601,7 +18595,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>1244</v>
       </c>
@@ -18633,7 +18627,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>1248</v>
       </c>
@@ -18662,7 +18656,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>1252</v>
       </c>
@@ -18685,7 +18679,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>1254</v>
       </c>
@@ -18711,7 +18705,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>1256</v>
       </c>
@@ -18737,7 +18731,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>1258</v>
       </c>
@@ -18763,7 +18757,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>1260</v>
       </c>
@@ -18789,7 +18783,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>1262</v>
       </c>
@@ -18815,7 +18809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>1264</v>
       </c>
@@ -18841,7 +18835,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>1266</v>
       </c>
@@ -18870,7 +18864,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>1269</v>
       </c>
@@ -18902,7 +18896,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>1272</v>
       </c>
@@ -18934,7 +18928,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>1276</v>
       </c>
@@ -18960,7 +18954,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>1278</v>
       </c>
@@ -18992,7 +18986,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>1278</v>
       </c>
@@ -19003,7 +18997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>1282</v>
       </c>
@@ -19035,7 +19029,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>1286</v>
       </c>
@@ -19064,7 +19058,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>1289</v>
       </c>
@@ -19096,7 +19090,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>1292</v>
       </c>
@@ -19125,7 +19119,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>1294</v>
       </c>
@@ -19148,7 +19142,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>1296</v>
       </c>
@@ -19174,7 +19168,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>1299</v>
       </c>
@@ -19197,7 +19191,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>1301</v>
       </c>
@@ -19232,7 +19226,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>1306</v>
       </c>
@@ -19261,7 +19255,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>1310</v>
       </c>
@@ -19290,7 +19284,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>1313</v>
       </c>
@@ -19325,7 +19319,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>1318</v>
       </c>
@@ -19357,7 +19351,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>1322</v>
       </c>
@@ -19386,7 +19380,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>1326</v>
       </c>
@@ -19418,7 +19412,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>1328</v>
       </c>
@@ -19447,7 +19441,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>1332</v>
       </c>
@@ -19476,7 +19470,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>1336</v>
       </c>
@@ -19508,7 +19502,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>1340</v>
       </c>
@@ -19537,7 +19531,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>1342</v>
       </c>
@@ -19569,7 +19563,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>1346</v>
       </c>
@@ -19601,7 +19595,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>1348</v>
       </c>
@@ -19630,7 +19624,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>1351</v>
       </c>
@@ -19665,7 +19659,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>1357</v>
       </c>
@@ -19697,7 +19691,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>1363</v>
       </c>
@@ -19729,7 +19723,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>1368</v>
       </c>
@@ -19752,7 +19746,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>1370</v>
       </c>
@@ -19775,7 +19769,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>1372</v>
       </c>
@@ -19807,7 +19801,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>1372</v>
       </c>
@@ -19818,23 +19812,41 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
-        <v>1372</v>
+        <v>1375</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1376</v>
       </c>
       <c r="C94" t="s">
-        <v>1375</v>
+        <v>954</v>
       </c>
       <c r="D94" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G94" t="s">
+        <v>957</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L94" t="s">
+        <v>548</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="B95" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="C95" t="s">
         <v>954</v>
@@ -19843,27 +19855,30 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="G95" t="s">
         <v>957</v>
       </c>
       <c r="H95" t="s">
-        <v>1380</v>
+        <v>1378</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1054</v>
       </c>
       <c r="L95" t="s">
-        <v>548</v>
+        <v>377</v>
       </c>
       <c r="N95" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B96" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C96" t="s">
         <v>954</v>
@@ -19872,30 +19887,27 @@
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G96" t="s">
         <v>957</v>
       </c>
       <c r="H96" t="s">
-        <v>1380</v>
-      </c>
-      <c r="I96" t="s">
         <v>1054</v>
       </c>
+      <c r="K96" t="s">
+        <v>1235</v>
+      </c>
       <c r="L96" t="s">
-        <v>377</v>
-      </c>
-      <c r="N96" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B97" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C97" t="s">
         <v>954</v>
@@ -19904,73 +19916,73 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G97" t="s">
         <v>957</v>
       </c>
       <c r="H97" t="s">
-        <v>1054</v>
+        <v>1389</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1057</v>
       </c>
       <c r="K97" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
       <c r="L97" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>374</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C98" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A99" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C99" t="s">
         <v>954</v>
       </c>
-      <c r="D98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G99" t="s">
         <v>957</v>
       </c>
-      <c r="H98" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="H99" t="s">
         <v>1057</v>
       </c>
-      <c r="K98" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L98" t="s">
-        <v>374</v>
-      </c>
-      <c r="N98" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D99" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="K99" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L99" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B100" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C100" t="s">
         <v>954</v>
@@ -19978,23 +19990,17 @@
       <c r="D100" t="s">
         <v>10</v>
       </c>
-      <c r="E100" t="s">
-        <v>1396</v>
-      </c>
       <c r="G100" t="s">
         <v>957</v>
       </c>
       <c r="H100" t="s">
         <v>1057</v>
       </c>
-      <c r="K100" t="s">
-        <v>1203</v>
-      </c>
       <c r="L100" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>1397</v>
       </c>
@@ -20007,22 +20013,34 @@
       <c r="D101" t="s">
         <v>10</v>
       </c>
+      <c r="E101" t="s">
+        <v>1399</v>
+      </c>
       <c r="G101" t="s">
         <v>957</v>
       </c>
       <c r="H101" t="s">
         <v>1057</v>
       </c>
+      <c r="I101" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1177</v>
+      </c>
       <c r="L101" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>556</v>
+      </c>
+      <c r="N101" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="B102" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="C102" t="s">
         <v>954</v>
@@ -20031,33 +20049,24 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G102" t="s">
         <v>957</v>
       </c>
       <c r="H102" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I102" t="s">
-        <v>1402</v>
-      </c>
-      <c r="K102" t="s">
-        <v>1177</v>
+        <v>1400</v>
       </c>
       <c r="L102" t="s">
-        <v>556</v>
-      </c>
-      <c r="N102" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B103" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C103" t="s">
         <v>954</v>
@@ -20065,20 +20074,17 @@
       <c r="D103" t="s">
         <v>10</v>
       </c>
-      <c r="E103" t="s">
-        <v>1406</v>
-      </c>
       <c r="G103" t="s">
         <v>957</v>
       </c>
       <c r="H103" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="L103" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>1407</v>
       </c>
@@ -20095,13 +20101,13 @@
         <v>957</v>
       </c>
       <c r="H104" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="L104" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>1409</v>
       </c>
@@ -20114,22 +20120,28 @@
       <c r="D105" t="s">
         <v>10</v>
       </c>
+      <c r="E105" t="s">
+        <v>1411</v>
+      </c>
       <c r="G105" t="s">
         <v>957</v>
       </c>
       <c r="H105" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="L105" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>564</v>
+      </c>
+      <c r="N105" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B106" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C106" t="s">
         <v>954</v>
@@ -20138,22 +20150,22 @@
         <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="G106" t="s">
         <v>957</v>
       </c>
       <c r="H106" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="L106" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N106" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>1414</v>
       </c>
@@ -20167,27 +20179,27 @@
         <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="G107" t="s">
         <v>957</v>
       </c>
       <c r="H107" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="L107" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N107" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B108" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C108" t="s">
         <v>954</v>
@@ -20196,27 +20208,30 @@
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>1418</v>
+        <v>1177</v>
       </c>
       <c r="G108" t="s">
         <v>957</v>
       </c>
       <c r="H108" t="s">
-        <v>1402</v>
+        <v>1400</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1177</v>
       </c>
       <c r="L108" t="s">
-        <v>568</v>
-      </c>
-      <c r="N108" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B109" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C109" t="s">
         <v>954</v>
@@ -20224,26 +20239,17 @@
       <c r="D109" t="s">
         <v>10</v>
       </c>
-      <c r="E109" t="s">
-        <v>1177</v>
-      </c>
       <c r="G109" t="s">
         <v>957</v>
       </c>
       <c r="H109" t="s">
-        <v>1402</v>
-      </c>
-      <c r="I109" t="s">
-        <v>1421</v>
-      </c>
-      <c r="K109" t="s">
-        <v>1177</v>
+        <v>1419</v>
       </c>
       <c r="L109" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>1422</v>
       </c>
@@ -20260,13 +20266,13 @@
         <v>957</v>
       </c>
       <c r="H110" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="L110" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>1424</v>
       </c>
@@ -20279,22 +20285,31 @@
       <c r="D111" t="s">
         <v>10</v>
       </c>
+      <c r="E111" t="s">
+        <v>1426</v>
+      </c>
       <c r="G111" t="s">
         <v>957</v>
       </c>
       <c r="H111" t="s">
-        <v>1421</v>
+        <v>1419</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1177</v>
       </c>
       <c r="L111" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B112" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C112" t="s">
         <v>954</v>
@@ -20303,30 +20318,27 @@
         <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="G112" t="s">
         <v>957</v>
       </c>
       <c r="H112" t="s">
-        <v>1421</v>
-      </c>
-      <c r="I112" t="s">
-        <v>1429</v>
-      </c>
-      <c r="K112" t="s">
-        <v>1177</v>
+        <v>1427</v>
       </c>
       <c r="L112" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>578</v>
+      </c>
+      <c r="N112" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B113" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C113" t="s">
         <v>954</v>
@@ -20335,22 +20347,25 @@
         <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>1432</v>
+        <v>1339</v>
       </c>
       <c r="G113" t="s">
         <v>957</v>
       </c>
       <c r="H113" t="s">
-        <v>1429</v>
+        <v>1427</v>
+      </c>
+      <c r="I113" t="s">
+        <v>818</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1339</v>
       </c>
       <c r="L113" t="s">
-        <v>578</v>
-      </c>
-      <c r="N113" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>1433</v>
       </c>
@@ -20363,26 +20378,17 @@
       <c r="D114" t="s">
         <v>10</v>
       </c>
-      <c r="E114" t="s">
-        <v>1339</v>
-      </c>
       <c r="G114" t="s">
         <v>957</v>
       </c>
       <c r="H114" t="s">
-        <v>1429</v>
-      </c>
-      <c r="I114" t="s">
         <v>818</v>
       </c>
-      <c r="K114" t="s">
-        <v>1339</v>
-      </c>
       <c r="L114" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>1435</v>
       </c>
@@ -20395,22 +20401,31 @@
       <c r="D115" t="s">
         <v>10</v>
       </c>
+      <c r="E115" t="s">
+        <v>1177</v>
+      </c>
       <c r="G115" t="s">
         <v>957</v>
       </c>
       <c r="H115" t="s">
         <v>818</v>
       </c>
+      <c r="I115" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K115" t="s">
+        <v>1177</v>
+      </c>
       <c r="L115" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B116" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C116" t="s">
         <v>954</v>
@@ -20419,30 +20434,27 @@
         <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>1177</v>
+        <v>1440</v>
       </c>
       <c r="G116" t="s">
         <v>957</v>
       </c>
       <c r="H116" t="s">
-        <v>818</v>
-      </c>
-      <c r="I116" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="K116" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="L116" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B117" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C117" t="s">
         <v>954</v>
@@ -20451,27 +20463,30 @@
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>1442</v>
+        <v>1177</v>
       </c>
       <c r="G117" t="s">
         <v>957</v>
       </c>
       <c r="H117" t="s">
-        <v>1439</v>
+        <v>1437</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1443</v>
       </c>
       <c r="K117" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="L117" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B118" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C118" t="s">
         <v>954</v>
@@ -20480,30 +20495,24 @@
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>1177</v>
+        <v>1446</v>
       </c>
       <c r="G118" t="s">
         <v>957</v>
       </c>
       <c r="H118" t="s">
-        <v>1439</v>
-      </c>
-      <c r="I118" t="s">
-        <v>1445</v>
-      </c>
-      <c r="K118" t="s">
-        <v>1177</v>
+        <v>1443</v>
       </c>
       <c r="L118" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B119" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C119" t="s">
         <v>954</v>
@@ -20512,24 +20521,27 @@
         <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="G119" t="s">
         <v>957</v>
       </c>
       <c r="H119" t="s">
-        <v>1445</v>
+        <v>1443</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1450</v>
       </c>
       <c r="L119" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="B120" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="C120" t="s">
         <v>954</v>
@@ -20538,27 +20550,30 @@
         <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="G120" t="s">
         <v>957</v>
       </c>
       <c r="H120" t="s">
-        <v>1445</v>
+        <v>1443</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1454</v>
       </c>
       <c r="K120" t="s">
-        <v>1452</v>
+        <v>1177</v>
       </c>
       <c r="L120" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="B121" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="C121" t="s">
         <v>954</v>
@@ -20567,30 +20582,27 @@
         <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="G121" t="s">
         <v>957</v>
       </c>
       <c r="H121" t="s">
-        <v>1445</v>
-      </c>
-      <c r="I121" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K121" t="s">
-        <v>1177</v>
+        <v>1457</v>
       </c>
       <c r="L121" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B122" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C122" t="s">
         <v>954</v>
@@ -20599,27 +20611,30 @@
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G122" t="s">
         <v>957</v>
       </c>
       <c r="H122" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="K122" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="L122" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>598</v>
+      </c>
+      <c r="N122" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="B123" t="s">
-        <v>1461</v>
+        <v>1333</v>
       </c>
       <c r="C123" t="s">
         <v>954</v>
@@ -20628,30 +20643,24 @@
         <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="G123" t="s">
         <v>957</v>
       </c>
       <c r="H123" t="s">
-        <v>1456</v>
-      </c>
-      <c r="K123" t="s">
-        <v>1452</v>
+        <v>843</v>
       </c>
       <c r="L123" t="s">
-        <v>598</v>
-      </c>
-      <c r="N123" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>1464</v>
       </c>
       <c r="B124" t="s">
-        <v>1333</v>
+        <v>1465</v>
       </c>
       <c r="C124" t="s">
         <v>954</v>
@@ -20660,24 +20669,27 @@
         <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="G124" t="s">
         <v>957</v>
       </c>
       <c r="H124" t="s">
-        <v>843</v>
+        <v>1467</v>
+      </c>
+      <c r="I124" t="s">
+        <v>855</v>
       </c>
       <c r="L124" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B125" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C125" t="s">
         <v>954</v>
@@ -20686,27 +20698,30 @@
         <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="G125" t="s">
         <v>957</v>
       </c>
       <c r="H125" t="s">
-        <v>1469</v>
+        <v>855</v>
       </c>
       <c r="I125" t="s">
-        <v>855</v>
+        <v>1471</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1472</v>
       </c>
       <c r="L125" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B126" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="C126" t="s">
         <v>954</v>
@@ -20715,30 +20730,27 @@
         <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="G126" t="s">
         <v>957</v>
       </c>
       <c r="H126" t="s">
-        <v>855</v>
-      </c>
-      <c r="I126" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="K126" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="L126" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B127" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C127" t="s">
         <v>954</v>
@@ -20747,27 +20759,30 @@
         <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="G127" t="s">
         <v>957</v>
       </c>
       <c r="H127" t="s">
-        <v>1473</v>
+        <v>1471</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1479</v>
       </c>
       <c r="K127" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="L127" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="B128" t="s">
-        <v>1479</v>
+        <v>1358</v>
       </c>
       <c r="C128" t="s">
         <v>954</v>
@@ -20776,30 +20791,24 @@
         <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="G128" t="s">
         <v>957</v>
       </c>
       <c r="H128" t="s">
-        <v>1473</v>
-      </c>
-      <c r="I128" t="s">
-        <v>1481</v>
-      </c>
-      <c r="K128" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N128" t="s">
         <v>1482</v>
       </c>
-      <c r="L128" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>1483</v>
       </c>
       <c r="B129" t="s">
-        <v>1358</v>
+        <v>1484</v>
       </c>
       <c r="C129" t="s">
         <v>954</v>
@@ -20808,24 +20817,27 @@
         <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G129" t="s">
         <v>957</v>
       </c>
       <c r="H129" t="s">
-        <v>1481</v>
+        <v>1479</v>
+      </c>
+      <c r="L129" t="s">
+        <v>607</v>
       </c>
       <c r="N129" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B130" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C130" t="s">
         <v>954</v>
@@ -20834,27 +20846,27 @@
         <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="G130" t="s">
         <v>957</v>
       </c>
       <c r="H130" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="L130" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N130" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>1488</v>
       </c>
       <c r="B131" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="C131" t="s">
         <v>954</v>
@@ -20863,27 +20875,30 @@
         <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="G131" t="s">
         <v>957</v>
       </c>
       <c r="H131" t="s">
-        <v>1481</v>
+        <v>1479</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1491</v>
       </c>
       <c r="L131" t="s">
-        <v>609</v>
-      </c>
-      <c r="N131" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B132" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="C132" t="s">
         <v>954</v>
@@ -20891,26 +20906,17 @@
       <c r="D132" t="s">
         <v>10</v>
       </c>
-      <c r="E132" t="s">
-        <v>1491</v>
-      </c>
       <c r="G132" t="s">
         <v>957</v>
       </c>
       <c r="H132" t="s">
-        <v>1481</v>
-      </c>
-      <c r="I132" t="s">
-        <v>1492</v>
-      </c>
-      <c r="K132" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="L132" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>1494</v>
       </c>
@@ -20923,22 +20929,28 @@
       <c r="D133" t="s">
         <v>10</v>
       </c>
+      <c r="E133" t="s">
+        <v>1496</v>
+      </c>
       <c r="G133" t="s">
         <v>957</v>
       </c>
       <c r="H133" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="L133" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>613</v>
+      </c>
+      <c r="N133" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B134" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C134" t="s">
         <v>954</v>
@@ -20947,27 +20959,27 @@
         <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="G134" t="s">
         <v>957</v>
       </c>
       <c r="H134" t="s">
-        <v>1492</v>
+        <v>1490</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1251</v>
       </c>
       <c r="L134" t="s">
-        <v>613</v>
-      </c>
-      <c r="N134" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B135" t="s">
-        <v>1500</v>
+        <v>1465</v>
       </c>
       <c r="C135" t="s">
         <v>954</v>
@@ -20982,21 +20994,21 @@
         <v>957</v>
       </c>
       <c r="H135" t="s">
-        <v>1492</v>
-      </c>
-      <c r="K135" t="s">
-        <v>1251</v>
+        <v>1490</v>
+      </c>
+      <c r="I135" t="s">
+        <v>799</v>
       </c>
       <c r="L135" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>1502</v>
       </c>
       <c r="B136" t="s">
-        <v>1467</v>
+        <v>1333</v>
       </c>
       <c r="C136" t="s">
         <v>954</v>
@@ -21011,21 +21023,21 @@
         <v>957</v>
       </c>
       <c r="H136" t="s">
-        <v>1492</v>
-      </c>
-      <c r="I136" t="s">
         <v>799</v>
       </c>
+      <c r="K136" t="s">
+        <v>1235</v>
+      </c>
       <c r="L136" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>1504</v>
       </c>
       <c r="B137" t="s">
-        <v>1333</v>
+        <v>1505</v>
       </c>
       <c r="C137" t="s">
         <v>954</v>
@@ -21034,27 +21046,30 @@
         <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="G137" t="s">
         <v>957</v>
       </c>
       <c r="H137" t="s">
-        <v>799</v>
+        <v>1058</v>
       </c>
       <c r="K137" t="s">
-        <v>1235</v>
+        <v>1507</v>
       </c>
       <c r="L137" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>617</v>
+      </c>
+      <c r="N137" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="B138" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="C138" t="s">
         <v>954</v>
@@ -21063,7 +21078,7 @@
         <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="G138" t="s">
         <v>957</v>
@@ -21071,22 +21086,19 @@
       <c r="H138" t="s">
         <v>1058</v>
       </c>
-      <c r="K138" t="s">
-        <v>1509</v>
-      </c>
       <c r="L138" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N138" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B139" t="s">
-        <v>1512</v>
+        <v>1358</v>
       </c>
       <c r="C139" t="s">
         <v>954</v>
@@ -21103,19 +21115,16 @@
       <c r="H139" t="s">
         <v>1058</v>
       </c>
-      <c r="L139" t="s">
-        <v>619</v>
-      </c>
       <c r="N139" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B140" t="s">
-        <v>1358</v>
+        <v>1516</v>
       </c>
       <c r="C140" t="s">
         <v>954</v>
@@ -21124,7 +21133,7 @@
         <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="G140" t="s">
         <v>957</v>
@@ -21132,16 +21141,19 @@
       <c r="H140" t="s">
         <v>1058</v>
       </c>
+      <c r="L140" t="s">
+        <v>621</v>
+      </c>
       <c r="N140" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B141" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C141" t="s">
         <v>954</v>
@@ -21149,9 +21161,6 @@
       <c r="D141" t="s">
         <v>10</v>
       </c>
-      <c r="E141" t="s">
-        <v>1519</v>
-      </c>
       <c r="G141" t="s">
         <v>957</v>
       </c>
@@ -21159,13 +21168,10 @@
         <v>1058</v>
       </c>
       <c r="L141" t="s">
-        <v>621</v>
-      </c>
-      <c r="N141" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>1520</v>
       </c>
@@ -21178,6 +21184,9 @@
       <c r="D142" t="s">
         <v>10</v>
       </c>
+      <c r="E142" t="s">
+        <v>1522</v>
+      </c>
       <c r="G142" t="s">
         <v>957</v>
       </c>
@@ -21185,15 +21194,18 @@
         <v>1058</v>
       </c>
       <c r="L142" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>625</v>
+      </c>
+      <c r="N142" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B143" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C143" t="s">
         <v>954</v>
@@ -21202,7 +21214,7 @@
         <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>1524</v>
+        <v>1177</v>
       </c>
       <c r="G143" t="s">
         <v>957</v>
@@ -21210,14 +21222,17 @@
       <c r="H143" t="s">
         <v>1058</v>
       </c>
+      <c r="I143" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K143" t="s">
+        <v>1177</v>
+      </c>
       <c r="L143" t="s">
-        <v>625</v>
-      </c>
-      <c r="N143" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>1525</v>
       </c>
@@ -21231,30 +21246,27 @@
         <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>1177</v>
+        <v>1527</v>
       </c>
       <c r="G144" t="s">
         <v>957</v>
       </c>
       <c r="H144" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I144" t="s">
         <v>1062</v>
       </c>
       <c r="K144" t="s">
-        <v>1177</v>
+        <v>1243</v>
       </c>
       <c r="L144" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B145" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C145" t="s">
         <v>954</v>
@@ -21262,23 +21274,17 @@
       <c r="D145" t="s">
         <v>10</v>
       </c>
-      <c r="E145" t="s">
-        <v>1529</v>
-      </c>
       <c r="G145" t="s">
         <v>957</v>
       </c>
       <c r="H145" t="s">
         <v>1062</v>
       </c>
-      <c r="K145" t="s">
-        <v>1243</v>
-      </c>
       <c r="L145" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>1530</v>
       </c>
@@ -21286,10 +21292,13 @@
         <v>1531</v>
       </c>
       <c r="C146" t="s">
-        <v>954</v>
+        <v>1532</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1533</v>
       </c>
       <c r="G146" t="s">
         <v>957</v>
@@ -21297,56 +21306,59 @@
       <c r="H146" t="s">
         <v>1062</v>
       </c>
+      <c r="I146" t="s">
+        <v>1065</v>
+      </c>
       <c r="L146" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="C147" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D147" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A148" t="s">
         <v>1534</v>
       </c>
-      <c r="D147" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="B148" t="s">
         <v>1535</v>
       </c>
-      <c r="G147" t="s">
+      <c r="C148" t="s">
+        <v>954</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G148" t="s">
         <v>957</v>
       </c>
-      <c r="H147" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="H148" t="s">
         <v>1065</v>
       </c>
-      <c r="L147" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="A148" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D148" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="K148" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L148" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B149" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C149" t="s">
         <v>954</v>
@@ -21355,7 +21367,7 @@
         <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G149" t="s">
         <v>957</v>
@@ -21363,19 +21375,19 @@
       <c r="H149" t="s">
         <v>1065</v>
       </c>
-      <c r="K149" t="s">
-        <v>1181</v>
+      <c r="I149" t="s">
+        <v>1066</v>
       </c>
       <c r="L149" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B150" t="s">
-        <v>1540</v>
+        <v>1358</v>
       </c>
       <c r="C150" t="s">
         <v>954</v>
@@ -21390,21 +21402,21 @@
         <v>957</v>
       </c>
       <c r="H150" t="s">
-        <v>1065</v>
-      </c>
-      <c r="I150" t="s">
         <v>1066</v>
       </c>
-      <c r="L150" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="K150" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N150" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B151" t="s">
-        <v>1358</v>
+        <v>1333</v>
       </c>
       <c r="C151" t="s">
         <v>954</v>
@@ -21413,7 +21425,7 @@
         <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>1543</v>
+        <v>1463</v>
       </c>
       <c r="G151" t="s">
         <v>957</v>
@@ -21421,19 +21433,16 @@
       <c r="H151" t="s">
         <v>1066</v>
       </c>
-      <c r="K151" t="s">
-        <v>1220</v>
-      </c>
-      <c r="N151" t="s">
+      <c r="L151" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A152" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="152" spans="1:14">
-      <c r="A152" t="s">
-        <v>1545</v>
-      </c>
       <c r="B152" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="C152" t="s">
         <v>954</v>
@@ -21442,73 +21451,76 @@
         <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>1465</v>
+        <v>1545</v>
       </c>
       <c r="G152" t="s">
         <v>957</v>
       </c>
       <c r="H152" t="s">
-        <v>1066</v>
+        <v>1072</v>
+      </c>
+      <c r="I152" t="s">
+        <v>892</v>
+      </c>
+      <c r="K152" t="s">
+        <v>1220</v>
       </c>
       <c r="L152" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B153" t="s">
         <v>1546</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1337</v>
       </c>
       <c r="C153" t="s">
         <v>954</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1547</v>
+        <v>26</v>
       </c>
       <c r="G153" t="s">
         <v>957</v>
       </c>
-      <c r="H153" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I153" t="s">
-        <v>892</v>
-      </c>
-      <c r="K153" t="s">
-        <v>1220</v>
-      </c>
-      <c r="L153" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B154" t="s">
-        <v>1548</v>
+        <v>1333</v>
       </c>
       <c r="C154" t="s">
         <v>954</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1548</v>
       </c>
       <c r="G154" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="H154" t="s">
+        <v>892</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L154" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>1549</v>
       </c>
       <c r="B155" t="s">
-        <v>1333</v>
+        <v>1550</v>
       </c>
       <c r="C155" t="s">
         <v>954</v>
@@ -21517,89 +21529,89 @@
         <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G155" t="s">
         <v>957</v>
       </c>
       <c r="H155" t="s">
-        <v>892</v>
-      </c>
-      <c r="K155" t="s">
-        <v>1477</v>
+        <v>1077</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1083</v>
       </c>
       <c r="L155" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B156" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C156" t="s">
         <v>1552</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A157" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A158" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D158" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A159" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C159" t="s">
         <v>954</v>
       </c>
-      <c r="D156" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G156" t="s">
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G159" t="s">
         <v>957</v>
       </c>
-      <c r="H156" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I156" t="s">
+      <c r="H159" t="s">
         <v>1083</v>
       </c>
-      <c r="L156" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="A157" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D157" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
-      <c r="A158" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D158" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C159" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D159" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="K159" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L159" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B160" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C160" t="s">
         <v>954</v>
@@ -21608,7 +21620,7 @@
         <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>1559</v>
+        <v>1177</v>
       </c>
       <c r="G160" t="s">
         <v>957</v>
@@ -21616,19 +21628,22 @@
       <c r="H160" t="s">
         <v>1083</v>
       </c>
+      <c r="I160" t="s">
+        <v>1560</v>
+      </c>
       <c r="K160" t="s">
-        <v>1235</v>
+        <v>1177</v>
       </c>
       <c r="L160" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B161" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C161" t="s">
         <v>954</v>
@@ -21636,26 +21651,17 @@
       <c r="D161" t="s">
         <v>10</v>
       </c>
-      <c r="E161" t="s">
-        <v>1177</v>
-      </c>
       <c r="G161" t="s">
         <v>957</v>
       </c>
       <c r="H161" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I161" t="s">
-        <v>1562</v>
-      </c>
-      <c r="K161" t="s">
-        <v>1177</v>
+        <v>1560</v>
       </c>
       <c r="L161" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>1563</v>
       </c>
@@ -21668,22 +21674,25 @@
       <c r="D162" t="s">
         <v>10</v>
       </c>
+      <c r="E162" t="s">
+        <v>1298</v>
+      </c>
       <c r="G162" t="s">
         <v>957</v>
       </c>
       <c r="H162" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="L162" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>1565</v>
       </c>
       <c r="B163" t="s">
-        <v>1566</v>
+        <v>1369</v>
       </c>
       <c r="C163" t="s">
         <v>954</v>
@@ -21692,24 +21701,30 @@
         <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>1298</v>
+        <v>1177</v>
       </c>
       <c r="G163" t="s">
         <v>957</v>
       </c>
       <c r="H163" t="s">
-        <v>1562</v>
+        <v>1560</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K163" t="s">
+        <v>1177</v>
       </c>
       <c r="L163" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>1567</v>
       </c>
       <c r="B164" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
       <c r="C164" t="s">
         <v>954</v>
@@ -21718,30 +21733,24 @@
         <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>1177</v>
+        <v>1298</v>
       </c>
       <c r="G164" t="s">
         <v>957</v>
       </c>
       <c r="H164" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I164" t="s">
+        <v>1566</v>
+      </c>
+      <c r="L164" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A165" t="s">
         <v>1568</v>
       </c>
-      <c r="K164" t="s">
-        <v>1177</v>
-      </c>
-      <c r="L164" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
         <v>1569</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1383</v>
       </c>
       <c r="C165" t="s">
         <v>954</v>
@@ -21750,24 +21759,33 @@
         <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>1298</v>
+        <v>1570</v>
       </c>
       <c r="G165" t="s">
         <v>957</v>
       </c>
       <c r="H165" t="s">
-        <v>1568</v>
+        <v>1566</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1177</v>
       </c>
       <c r="L165" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>643</v>
+      </c>
+      <c r="N165" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="B166" t="s">
-        <v>1571</v>
+        <v>1376</v>
       </c>
       <c r="C166" t="s">
         <v>954</v>
@@ -21775,34 +21793,22 @@
       <c r="D166" t="s">
         <v>10</v>
       </c>
-      <c r="E166" t="s">
-        <v>1572</v>
-      </c>
       <c r="G166" t="s">
         <v>957</v>
       </c>
       <c r="H166" t="s">
-        <v>1568</v>
-      </c>
-      <c r="I166" t="s">
-        <v>1573</v>
-      </c>
-      <c r="K166" t="s">
-        <v>1177</v>
+        <v>1571</v>
       </c>
       <c r="L166" t="s">
-        <v>643</v>
-      </c>
-      <c r="N166" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A167" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167" t="s">
+      <c r="B167" t="s">
         <v>1575</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1378</v>
       </c>
       <c r="C167" t="s">
         <v>954</v>
@@ -21810,17 +21816,20 @@
       <c r="D167" t="s">
         <v>10</v>
       </c>
+      <c r="E167" t="s">
+        <v>1298</v>
+      </c>
       <c r="G167" t="s">
         <v>957</v>
       </c>
       <c r="H167" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="L167" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>1576</v>
       </c>
@@ -21834,41 +21843,15 @@
         <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>1298</v>
+        <v>1578</v>
       </c>
       <c r="G168" t="s">
         <v>957</v>
       </c>
       <c r="H168" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="L168" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
-      <c r="A169" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C169" t="s">
-        <v>954</v>
-      </c>
-      <c r="D169" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G169" t="s">
-        <v>957</v>
-      </c>
-      <c r="H169" t="s">
-        <v>1573</v>
-      </c>
-      <c r="L169" t="s">
         <v>374</v>
       </c>
     </row>
@@ -21878,26 +21861,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d36f69ff-909f-42f0-bcc0-b14cffdde790" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24b55717-dc70-4fe2-97a3-2da4595dc770">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100964A50AC40C68F48AA54E384FAB8BAC3" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="157df79194c6c2bd6c8e31a26e9ffcca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24b55717-dc70-4fe2-97a3-2da4595dc770" xmlns:ns3="d36f69ff-909f-42f0-bcc0-b14cffdde790" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82546044a09671a4a24addf608741217" ns2:_="" ns3:_="">
     <xsd:import namespace="24b55717-dc70-4fe2-97a3-2da4595dc770"/>
@@ -22146,14 +22109,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d36f69ff-909f-42f0-bcc0-b14cffdde790" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24b55717-dc70-4fe2-97a3-2da4595dc770">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E7914F-73FA-4679-857A-30CA130291E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEB8FD27-E58A-448E-BDF1-E9A120CFA589}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="24b55717-dc70-4fe2-97a3-2da4595dc770"/>
+    <ds:schemaRef ds:uri="d36f69ff-909f-42f0-bcc0-b14cffdde790"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CB4F23-D9C5-429D-B810-6FB7EEB96535}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CB4F23-D9C5-429D-B810-6FB7EEB96535}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEB8FD27-E58A-448E-BDF1-E9A120CFA589}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E7914F-73FA-4679-857A-30CA130291E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d36f69ff-909f-42f0-bcc0-b14cffdde790"/>
+    <ds:schemaRef ds:uri="24b55717-dc70-4fe2-97a3-2da4595dc770"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/data/data-duerer_english.xlsx
+++ b/public/data/data-duerer_english.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\duk\InTaVia2023\data-import\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBED6870-D726-45AF-B273-CEB9BE726058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7A8F99-62DE-4B0B-B5E5-6E41C277EF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" tabRatio="647" firstSheet="7" activeTab="8" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" tabRatio="647" firstSheet="2" activeTab="2" xr2:uid="{C25329CA-05B7-420C-A3AD-7BFC7999E524}"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="1589">
   <si>
     <t>id</t>
   </si>
@@ -4809,6 +4809,12 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Krönung Karl V</t>
+  </si>
+  <si>
+    <t>Coronation of Charles V</t>
   </si>
 </sst>
 </file>
@@ -7274,7 +7280,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -10968,7 +10974,7 @@
   <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -15356,8 +15362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC9A2E5-F71D-9A4E-A662-6DFB9F354A8A}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -16500,21 +16506,33 @@
       <c r="A39" t="s">
         <v>1033</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>1588</v>
+      </c>
       <c r="C39" s="6" t="s">
         <v>934</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>1587</v>
+      </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>1049</v>
+      </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="L39" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
     </row>
@@ -17201,8 +17219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DE7CD6-3992-47BC-A701-56D724BB2518}">
   <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -22110,15 +22128,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d36f69ff-909f-42f0-bcc0-b14cffdde790" xsi:nil="true"/>
@@ -22127,6 +22136,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22149,14 +22167,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CB4F23-D9C5-429D-B810-6FB7EEB96535}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2E7914F-73FA-4679-857A-30CA130291E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -22165,4 +22175,12 @@
     <ds:schemaRef ds:uri="24b55717-dc70-4fe2-97a3-2da4595dc770"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CB4F23-D9C5-429D-B810-6FB7EEB96535}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>